--- a/Coursework2/cw2_1.xlsx
+++ b/Coursework2/cw2_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3063000040128827</v>
+        <v>0.776599976234138</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7790999952703714</v>
+        <v>0.3992000129073858</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>128</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6616000027861446</v>
+        <v>0.5083000287413597</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>256</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7620000105816871</v>
+        <v>0.8008000440895557</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>512</v>
       </c>
       <c r="D6" t="n">
-        <v>1.157799997599795</v>
+        <v>1.150900032371283</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1024</v>
       </c>
       <c r="D7" t="n">
-        <v>2.010799988056533</v>
+        <v>2.847200026735663</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C8" t="n">
         <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>3.123399990727194</v>
+        <v>1.440500025637448</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C9" t="n">
         <v>64</v>
       </c>
       <c r="D9" t="n">
-        <v>2.863899993826635</v>
+        <v>1.757700112648308</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C10" t="n">
         <v>128</v>
       </c>
       <c r="D10" t="n">
-        <v>3.348999991430901</v>
+        <v>3.322800039313734</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C11" t="n">
         <v>256</v>
       </c>
       <c r="D11" t="n">
-        <v>6.016300001647323</v>
+        <v>2.196499961428344</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C12" t="n">
         <v>512</v>
       </c>
       <c r="D12" t="n">
-        <v>5.750900003477</v>
+        <v>2.976099960505962</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C13" t="n">
         <v>1024</v>
       </c>
       <c r="D13" t="n">
-        <v>7.434500003000721</v>
+        <v>4.000699962489307</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C14" t="n">
         <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>27.4762000044575</v>
+        <v>4.585900111123919</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C15" t="n">
         <v>64</v>
       </c>
       <c r="D15" t="n">
-        <v>32.12379998876713</v>
+        <v>2.91719997767359</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C16" t="n">
         <v>128</v>
       </c>
       <c r="D16" t="n">
-        <v>41.35320000932552</v>
+        <v>3.259300021454692</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C17" t="n">
         <v>256</v>
       </c>
       <c r="D17" t="n">
-        <v>40.43880000244826</v>
+        <v>3.940699971280992</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C18" t="n">
         <v>512</v>
       </c>
       <c r="D18" t="n">
-        <v>45.06620000756811</v>
+        <v>7.548399968072772</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,97 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C19" t="n">
         <v>1024</v>
       </c>
       <c r="D19" t="n">
-        <v>59.04530000407249</v>
+        <v>5.85949991364032</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>32</v>
+      </c>
+      <c r="D20" t="n">
+        <v>32.68169995862991</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>64</v>
+      </c>
+      <c r="D21" t="n">
+        <v>33.84719998575747</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>128</v>
+      </c>
+      <c r="D22" t="n">
+        <v>42.30810003355145</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>256</v>
+      </c>
+      <c r="D23" t="n">
+        <v>44.71130005549639</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>512</v>
+      </c>
+      <c r="D24" t="n">
+        <v>48.53610007558018</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D25" t="n">
+        <v>58.69019997771829</v>
       </c>
     </row>
   </sheetData>
